--- a/mecatronica/lp/Chamada.xlsx
+++ b/mecatronica/lp/Chamada.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wellington\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wellington\senai2025\mecatronica\lp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2D9236B-9118-43D6-9266-61FE32129C96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02F278B2-32DE-45AB-8390-19E3FEBA843F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11520" xr2:uid="{61FC206C-72CD-4264-B2AB-BE85D1DED9B7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{61FC206C-72CD-4264-B2AB-BE85D1DED9B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="22">
   <si>
     <t>Guilherme Assis Pereira</t>
   </si>
@@ -99,13 +99,16 @@
   </si>
   <si>
     <t>P</t>
+  </si>
+  <si>
+    <t>Sex</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,6 +121,12 @@
       <color theme="1"/>
       <name val="Aptos"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -140,7 +149,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -151,6 +160,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -485,176 +495,298 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C792F40-3E98-4415-93FE-BF383DE9D8A9}">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" s="2">
         <v>45680</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="4">
+        <v>45687</v>
+      </c>
+      <c r="D1" s="4">
+        <v>45694</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B7" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B9" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B10" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B11" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B12" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B13" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B14" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B15" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B16" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B19" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
       </c>
+      <c r="C20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>